--- a/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
@@ -700,6 +700,9 @@
       <c r="C31" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -761,7 +764,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0160220101520201181013103510252515201016835710221225918130</v>
+        <v>0160220101520201181013103510252515201016835710221225918131</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
@@ -701,7 +701,7 @@
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F31" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +764,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0160220101520201181013103510252515201016835710221225918131</v>
+        <v>01602201015202011810131035102525152010168357102212259181310</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -704,9 +704,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F32" t="str">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L32"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -764,7 +772,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01602201015202011810131035102525152010168357102212259181310</v>
+        <v>016022010152020118101310351025251520101683571022122591813106</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
@@ -774,6 +774,9 @@
       <c r="G2" t="str">
         <v>016022010152020118101310351025251520101683571022122591813106</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,98 +446,90 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>118_绣球苹果绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+        <v>327_文竹_asparagus fern_undefined_1bunch</v>
       </c>
       <c r="F2" t="str">
-        <v>160</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>2</v>
-      </c>
       <c r="C3" t="str">
-        <v>108_绣球单瓣深蓝_Hydrangea Dark Blue S_Hydrangea L._1stem</v>
+        <v>341_南天竹绿_undefined_Nandina domestica Thunb._1bunch</v>
       </c>
       <c r="F3" t="str">
-        <v>220</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>3</v>
-      </c>
       <c r="C4" t="str">
-        <v>327_文竹_asparagus fern_undefined_1bunch</v>
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
       </c>
       <c r="F4" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="str">
-        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="C5" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
       <c r="F5" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
       <c r="C6" t="str" xml:space="preserve">
-        <v xml:space="preserve">405_小飞燕深蓝_ delphinium ballkleid
-dark blue_undefined_1bunch</v>
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
       <c r="F6" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="C7" t="str" xml:space="preserve">
-        <v xml:space="preserve">405_小飞燕深蓝_ delphinium ballkleid
-dark blue_undefined_1bunch</v>
+        <v xml:space="preserve">351_千层金橙_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
       </c>
       <c r="F7" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="str">
-        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+        <v>328_卢荀草_undefined_undefined_1bunch</v>
       </c>
       <c r="F8" t="str">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="str">
-        <v>544_空气草_undefined_undefined_1bunch</v>
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
       <c r="F9" t="str">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>4</v>
-      </c>
       <c r="C10" t="str">
-        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
       </c>
       <c r="F10" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="str">
-        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
       </c>
       <c r="F11" t="str">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="str">
-        <v>75_爱心_undefined_Gerbera L._10stems</v>
+        <v>596_橄榄叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F12" t="str">
         <v>10</v>
@@ -545,176 +537,443 @@
     </row>
     <row r="13">
       <c r="C13" t="str">
-        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+        <v>544_空气草_undefined_undefined_1bunch</v>
       </c>
       <c r="F13" t="str">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="str">
-        <v>546_绿宝石_undefined_undefined_1bunch</v>
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
       </c>
       <c r="F14" t="str">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="str">
+        <v>2</v>
+      </c>
       <c r="C15" t="str">
-        <v>360_夕雾草_undefined_Trachelium caeruleum L._1bunch</v>
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
       </c>
       <c r="F15" t="str">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="str">
-        <v>650_洋牡丹婚礼白_undefined_undefined_1bunch</v>
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
       </c>
       <c r="F16" t="str">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+        <v>440_火棘果_undefined_undefined_1bunch</v>
       </c>
       <c r="F17" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>566_金盏花_Marigolds_undefined_1bunch</v>
+        <v>320_雪柳花_Spiraea flower white_undefined_1bunch</v>
       </c>
       <c r="F18" t="str">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
         <v>20</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>5</v>
-      </c>
-      <c r="C19" t="str">
-        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
-      </c>
-      <c r="F19" t="str">
-        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" t="str">
-        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+        <v>516_火焰兰_Crocosmia_undefined_1bunch</v>
       </c>
       <c r="F20" t="str">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="str">
-        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+        <v>348_万年青_undefined_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="str">
-        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
       </c>
       <c r="F22" t="str">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="str">
-        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+        <v>577_腊梅白_wax white_undefined_1bunch</v>
       </c>
       <c r="F23" t="str">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="str">
-        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+        <v>581_腊梅橙_wax orange_undefined_1bunch</v>
       </c>
       <c r="F24" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v>6</v>
-      </c>
       <c r="C25" t="str">
-        <v>563_星芹_Astrantia_undefined_1bunch</v>
+        <v>439_九星叶_undefined_undefined_1bunch</v>
       </c>
       <c r="F25" t="str">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="str">
+        <v>3</v>
+      </c>
       <c r="C26" t="str">
-        <v>650_洋牡丹婚礼白_undefined_undefined_1bunch</v>
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
       </c>
       <c r="F26" t="str">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" t="str">
-        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F27" t="str">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="str">
-        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F28" t="str">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
-        <v>7</v>
-      </c>
       <c r="C29" t="str">
-        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F29" t="str">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" t="str">
-        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+        <v>581_腊梅橙_wax orange_undefined_1bunch</v>
       </c>
       <c r="F30" t="str">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" t="str">
-        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F31" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F32" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>4</v>
+      </c>
+      <c r="C33" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>607_康乃馨芙蓉_light orange_undefined_20stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>611_康乃馨奶油白_cream white_undefined_20stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>457_茴香花_lace flower yellow_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>331_猫尾草_cat tail grass_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>5</v>
+      </c>
+      <c r="C45" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>665_大丽花 慕斯_undefined_undefined_5stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>480_蝴蝶洋牡丹 红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
         <v>6</v>
+      </c>
+      <c r="C50" t="str">
+        <v>389_金合欢_mimosa_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F52" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>589_洋牡丹香槟_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>7</v>
+      </c>
+      <c r="C59" t="str">
+        <v>543_柔丽思红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>450_柔丽思 黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>650_洋牡丹婚礼白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F61" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>352_贝壳叶_molucela_Moluccella laevis Pall._1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L64"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -772,10 +1031,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>016022010152020118101310351025251520101683571022122591813106</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>010103010101025155101010201010104020101555101530101085581515151210301015101015102016101610301015102151010101551312105</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-11-13.xlsx
@@ -1033,6 +1033,9 @@
       <c r="G2" t="str">
         <v>010103010101025155101010201010104020101555101530101085581515151210301015101015102016101610301015102151010101551312105</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
